--- a/الجائزة/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/الجائزة/تقاييم/توليد الافكار الابداعية.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E697F-41FE-48EE-A5CB-2D1B46BB31C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="15372" windowHeight="7872" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="تنفيذ المشروع والدورات" sheetId="5" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>القيمة المضافة</t>
   </si>
@@ -305,12 +304,19 @@
   <si>
     <t>شرح التطبيقات</t>
   </si>
+  <si>
+    <t>تطوير الية العمل
+الاحباط من الطريقة القديمة</t>
+  </si>
+  <si>
+    <t>الافكار الابداعية والابتكارية</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +377,14 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -392,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -410,15 +424,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -480,23 +485,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -529,20 +521,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,13 +557,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,25 +578,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -598,16 +608,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,13 +959,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>747933</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1505597</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>10908</xdr:rowOff>
@@ -996,13 +1009,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>738614</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>10729</xdr:rowOff>
@@ -1309,109 +1322,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="15" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -1422,229 +1435,223 @@
         <v>63</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
         <v>5</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
         <v>6</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="16" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
         <v>10</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B3:J4"/>
     <mergeCell ref="I8:J8"/>
@@ -1655,6 +1662,12 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1663,105 +1676,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
@@ -1772,9 +1785,9 @@
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
@@ -1785,9 +1798,9 @@
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>43</v>
       </c>
@@ -1798,84 +1811,95 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A12:F12"/>
@@ -1885,17 +1909,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1904,110 +1917,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="32"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
@@ -2020,9 +2033,9 @@
         <v>35</v>
       </c>
       <c r="G8" s="24"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
@@ -2035,9 +2048,9 @@
         <v>37</v>
       </c>
       <c r="G9" s="24"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>38</v>
       </c>
@@ -2050,9 +2063,9 @@
         <v>40</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>45</v>
       </c>
@@ -2065,88 +2078,77 @@
         <v>47</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
@@ -2154,6 +2156,17 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2162,220 +2175,254 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" s="45" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F5" s="46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="6" spans="2:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="C6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="E6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F6" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="2:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="2:14" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="38" t="s">
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F11" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F13" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="14" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="C14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="D14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="E14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="F14" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="26"/>
+    <row r="15" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
+  <mergeCells count="22">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2384,12 +2431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/الجائزة/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/الجائزة/تقاييم/توليد الافكار الابداعية.xlsx
@@ -539,18 +539,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -560,6 +569,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,60 +585,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1338,58 +1338,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
@@ -1403,8 +1403,8 @@
       <c r="H5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -1427,18 +1427,18 @@
       <c r="D7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
@@ -1458,8 +1458,8 @@
       <c r="H8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
@@ -1479,8 +1479,8 @@
       <c r="H9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
@@ -1500,8 +1500,8 @@
       <c r="H10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
@@ -1521,8 +1521,8 @@
       <c r="H11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -1542,8 +1542,8 @@
       <c r="H12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
@@ -1563,8 +1563,8 @@
       <c r="H13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
@@ -1584,8 +1584,8 @@
       <c r="H14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
@@ -1605,8 +1605,8 @@
       <c r="H15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
@@ -1626,8 +1626,8 @@
       <c r="H16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
@@ -1647,11 +1647,17 @@
       <c r="H17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B3:J4"/>
     <mergeCell ref="I8:J8"/>
@@ -1662,12 +1668,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1680,7 +1680,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,14 +1690,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1705,12 +1705,12 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1718,14 +1718,14 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1733,12 +1733,12 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1775,42 +1775,42 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,12 +1823,12 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1843,30 +1843,30 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1889,17 +1889,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A12:F12"/>
@@ -1909,6 +1898,17 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1920,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
@@ -1932,14 +1932,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1947,12 +1947,12 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1960,14 +1960,14 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1975,12 +1975,12 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2006,78 +2006,78 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2110,14 +2110,14 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2149,6 +2149,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
@@ -2156,17 +2167,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2192,13 +2192,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2209,11 +2209,11 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2224,13 +2224,13 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2241,11 +2241,11 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2255,7 +2255,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="2:14" s="45" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2268,88 +2268,88 @@
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="2:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:14" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="42" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="41"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
@@ -2369,38 +2369,44 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="25"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="F6:F8"/>
@@ -2417,12 +2423,6 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/الجائزة/تقاييم/توليد الافكار الابداعية.xlsx
+++ b/الجائزة/تقاييم/توليد الافكار الابداعية.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>القيمة المضافة</t>
   </si>
@@ -264,10 +264,6 @@
     <t>ملاحظة:</t>
   </si>
   <si>
-    <t>التحسينات كانت بناءاً على ملاحظات المستخدمين الماخوذة من استبيان 
-((النتائج واثار الافكار الابداعية والابتكارية))</t>
-  </si>
-  <si>
     <t>اضافة عنصر في الادخال يشمل الايميل او رقم الهاتف
 للمهندس المشرف حتى يتم ارسال اشعارات بقرب انهاء 
 كفالة الصيانة تلقائياً
@@ -310,6 +306,25 @@
   </si>
   <si>
     <t>الافكار الابداعية والابتكارية</t>
+  </si>
+  <si>
+    <t>تطبيق رفع الصور</t>
+  </si>
+  <si>
+    <t>عمل لوحة ادخال  تتيح للمستخدم تحميل الصورة ومن ثم ظهورها على صفحة الويب مع امر الطباعة</t>
+  </si>
+  <si>
+    <t>عمل تطبيق لحساب
+ حسميات المختبر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتمتتة عملية حساب الحسميات بناءاً على لوحة ادخال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">التحسينات كانت بناءاً على ملاحظات المستخدمين الماخوذة من استبيان 
+((النتائج واثار الافكار الابداعية والابتكارية)) الموجودة نماذجه تحت
+بند ((النتائج وأثر الافكار الابداعية والابتكارية))
+</t>
   </si>
 </sst>
 </file>
@@ -485,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -548,18 +563,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,6 +584,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,19 +602,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,17 +638,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1338,58 +1362,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
@@ -1401,10 +1425,10 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -1419,24 +1443,24 @@
     </row>
     <row r="7" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E7" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="28"/>
     </row>
@@ -1447,19 +1471,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
@@ -1468,19 +1492,19 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
@@ -1489,19 +1513,19 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
@@ -1510,19 +1534,19 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -1531,19 +1555,19 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
@@ -1552,19 +1576,19 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
@@ -1573,19 +1597,19 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
@@ -1594,19 +1618,19 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
@@ -1615,19 +1639,19 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
@@ -1636,28 +1660,22 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B3:J4"/>
     <mergeCell ref="I8:J8"/>
@@ -1668,6 +1686,12 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1677,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,14 +1714,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1705,12 +1729,12 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1718,14 +1742,14 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1733,12 +1757,12 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1764,14 +1788,14 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1806,7 +1830,7 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1823,50 +1847,58 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="C15" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1878,37 +1910,23 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="15">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1920,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G15"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="131" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1932,14 +1950,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1947,12 +1965,12 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1960,14 +1978,14 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1975,12 +1993,12 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2006,18 +2024,18 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -2109,15 +2127,15 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+    <row r="15" spans="2:12" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2149,17 +2167,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
@@ -2167,6 +2174,17 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2178,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2192,13 +2210,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2209,11 +2227,11 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2224,13 +2242,13 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2273,71 +2291,71 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>64</v>
+      <c r="F6" s="43" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="28"/>
     </row>
     <row r="8" spans="2:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:14" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="46" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="42"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="45" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="28" t="s">
@@ -2345,10 +2363,10 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -2369,44 +2387,38 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="F6:F8"/>
@@ -2423,6 +2435,12 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
